--- a/Docs/Sprint 1 Burndown.xlsx
+++ b/Docs/Sprint 1 Burndown.xlsx
@@ -1,47 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\315\p2\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Sprint 1 - Sprint 1 Burndown" sheetId="2" r:id="rId5"/>
-    <sheet name="Sprint 1 - # Backlog Features v" sheetId="3" r:id="rId6"/>
-    <sheet name="Sprint 1 - Drawings" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
-  <si>
-    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
-  </si>
-  <si>
-    <t>Numbers Sheet Name</t>
-  </si>
-  <si>
-    <t>Numbers Table Name</t>
-  </si>
-  <si>
-    <t>Excel Worksheet Name</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 1 Burndown</t>
-  </si>
-  <si>
-    <t>Sprint 1 - Sprint 1 Burndown</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Task</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Create Game class</t>
@@ -116,12 +96,6 @@
     <t>Set base structure for difficulty</t>
   </si>
   <si>
-    <t># Backlog Features vs Time Spent</t>
-  </si>
-  <si>
-    <t>Sprint 1 - # Backlog Features v</t>
-  </si>
-  <si>
     <t>Time Spent</t>
   </si>
   <si>
@@ -131,55 +105,38 @@
     <t>Actual Backlog</t>
   </si>
   <si>
-    <t>"All Drawings from the Sheet"</t>
+    <t>Time Finished</t>
   </si>
-  <si>
-    <t>Sprint 1 - Drawings</t>
-  </si>
-  <si/>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,30 +145,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -220,24 +159,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="14"/>
       </right>
@@ -250,24 +172,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="14"/>
       </right>
@@ -280,12 +185,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="14"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
         <color indexed="13"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="13"/>
       </top>
@@ -296,186 +245,718 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color theme="2" tint="-0.24994659260841701"/>
       </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color theme="2" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color theme="2" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="13"/>
+        </left>
+        <right style="thin">
+          <color indexed="13"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="14"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="13"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="13"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="14"/>
+        </right>
+        <top style="thin">
+          <color indexed="13"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="13"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="14"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="13"/>
+        </left>
+        <right style="thin">
+          <color indexed="13"/>
+        </right>
+        <top style="thin">
+          <color indexed="13"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="13"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="5">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
+    </tableStyle>
+    <tableStyle name="Table Style 2" pivot="0" count="1">
+      <tableStyleElement type="firstColumn" dxfId="19"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffb8b8b8"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff51a7f9"/>
-      <rgbColor rgb="ff6fbf40"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="015E88B1"/>
+      <rgbColor rgb="01EEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFB8B8B8"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF51A7F9"/>
+      <rgbColor rgb="FF6FBF40"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica"/>
-              </a:rPr>
-              <a:t>Sprint 1 Burndown Chart</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.341425"/>
-          <c:y val="0"/>
-          <c:w val="0.317151"/>
-          <c:h val="0.0846906"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0992539"/>
-          <c:y val="0.0846906"/>
-          <c:w val="0.886116"/>
-          <c:h val="0.790432"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -483,68 +964,40 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Ideal Time</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Backlog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="50800" cap="flat">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="51A7F9"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="72"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="50800" cap="flat">
-                <a:solidFill>
-                  <a:srgbClr val="51A7F9"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 1 - # Backlog Features v'!$A$3:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -575,40 +1028,44 @@
                 <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1 - # Backlog Features v'!$B$3:$B$10</c:f>
+              <c:f>Sheet1!$D$28:$D$37</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.600000</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.200000</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.800000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.400000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.000000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.600000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.200000</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,68 +1076,40 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Actual Time</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Backlog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="50800" cap="flat">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="70BF41"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="72"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="50800" cap="flat">
-                <a:solidFill>
-                  <a:srgbClr val="70BF41"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 1 - # Backlog Features v'!$A$3:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -711,130 +1140,162 @@
                 <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1 - # Backlog Features v'!$C$3:$C$13</c:f>
+              <c:f>Sheet1!$E$28:$E$37</c:f>
               <c:numCache>
-                <c:ptCount val="11"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.000000</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.000000</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.000000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.000000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.000000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.000000</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.000000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.000000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="429593472"/>
+        <c:axId val="429592352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094734552"/>
+        <c:axId val="429593472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1100" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1100" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica"/>
-                  </a:rPr>
-                  <a:t>Days in Sprint</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="1"/>
-        </c:title>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:ln>
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:srgbClr val="70BF41"/>
             </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="429592352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="429592352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -844,160 +1305,764 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="B8B8B8"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1100" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1100" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica"/>
-                  </a:rPr>
-                  <a:t>Number of Features in Backlog</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="1"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700" cap="flat">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="70BF41"/>
+            </a:solidFill>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="429593472"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="2.5"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0992539"/>
-          <c:y val="0.103685"/>
-          <c:w val="0.86889"/>
-          <c:h val="0.0640879"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Helvetica"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter>
+      <c:oddHeader>&amp;CSprint 1</c:oddHeader>
+    </c:headerFooter>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>621689</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174984</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>102552</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>549575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>39052</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87488</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3669689" y="102552"/>
-        <a:ext cx="5261887" cy="3898901"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1006,8 +2071,33 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C27:E37" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="C27:E37"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Time Spent" dataDxfId="3"/>
+    <tableColumn id="2" name="Ideal Backlog" dataDxfId="2">
+      <calculatedColumnFormula>24-(24/10*C28)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Actual Backlog" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="A1:B25"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Task" dataDxfId="10"/>
+    <tableColumn id="2" name="Time Finished" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1133,7 +2223,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1142,7 +2232,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1151,7 +2241,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1215,8 +2305,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1224,7 +2314,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1232,7 +2322,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1251,7 +2341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +2349,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1287,7 +2377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +2403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +2429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +2455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +2481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +2507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +2533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +2559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,7 +2585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1508,9 +2598,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1527,7 +2623,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1546,7 +2642,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1572,7 +2668,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1598,7 +2694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1624,7 +2720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1650,7 +2746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1676,7 +2772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1702,7 +2798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1728,7 +2824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1754,7 +2850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1780,7 +2876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1793,9 +2889,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1809,7 +2911,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1828,7 +2930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1858,7 +2960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1884,7 +2986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1910,7 +3012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1936,7 +3038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1962,7 +3064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1988,7 +3090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2014,7 +3116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2040,7 +3142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2066,7 +3168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2079,477 +3181,404 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="4"/>
-      <c r="C11" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'Sprint 1 - Sprint 1 Burndown'!R2C1" tooltip="" display="Sprint 1 - Sprint 1 Burndown"/>
-    <hyperlink ref="D11" location="'Sprint 1 - # Backlog Features v'!R2C1" tooltip="" display="Sprint 1 - # Backlog Features v"/>
-    <hyperlink ref="D12" location="'Sprint 1 - Drawings'!R1C1" tooltip="" display="Sprint 1 - Drawings"/>
-  </hyperlinks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B26"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.8906" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="9">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="11">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B12" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="11">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" ht="32.35" customHeight="1">
-      <c r="A7" t="s" s="11">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="11">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="11">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B16" s="8">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="11">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="11">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B18" s="8">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="11">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="11">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B20" s="8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="11">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="11">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="11">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B23" s="8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="11">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B24" s="8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="11">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B25" s="10">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="11">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="B20" s="12"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <f>COUNT(Table2[Time Finished])</f>
+        <v>24</v>
+      </c>
+      <c r="E28" s="16">
+        <f>24-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="B21" s="12"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="14">
+        <f>C28+1</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="15">
+        <f>ROUNDUP(24-(24/9*C29),0)</f>
+        <v>22</v>
+      </c>
+      <c r="E29" s="16">
+        <f>E28-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="B22" s="12"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="14">
+        <f t="shared" ref="C30:C37" si="0">C29+1</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" ref="D30:D37" si="1">ROUNDUP(24-(24/9*C30),0)</f>
+        <v>19</v>
+      </c>
+      <c r="E30" s="16">
+        <f>E29-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="B23" s="12"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E31" s="16">
+        <f>E30-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="24" ht="32.35" customHeight="1">
-      <c r="A24" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="B24" s="12"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E32" s="16">
+        <f>E31-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="B25" s="12"/>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E33" s="16">
+        <f>E32-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="B26" s="12"/>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E34" s="16">
+        <f>E33-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E35" s="16">
+        <f>E34-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E36" s="16">
+        <f>E35-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <f>E36-COUNTIF(Table2[Time Finished],Table1[[#This Row],[Time Spent]])</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;26Sprint 1</oddHeader>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="16.3516" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.4531" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.4531" style="13" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s" s="8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="14">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15">
-        <v>24</v>
-      </c>
-      <c r="C3" s="16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18">
-        <f>24-(24/10*A4)</f>
-        <v>21.6</v>
-      </c>
-      <c r="C4" s="19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="17">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18">
-        <f>24-(24/10*A5)</f>
-        <v>19.2</v>
-      </c>
-      <c r="C5" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="17">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18">
-        <f>24-(24/10*A6)</f>
-        <v>16.8</v>
-      </c>
-      <c r="C6" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="17">
-        <v>4</v>
-      </c>
-      <c r="B7" s="18">
-        <f>24-(24/10*A7)</f>
-        <v>14.4</v>
-      </c>
-      <c r="C7" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="17">
-        <v>5</v>
-      </c>
-      <c r="B8" s="18">
-        <f>24-(24/10*A8)</f>
-        <v>12</v>
-      </c>
-      <c r="C8" s="19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="17">
-        <v>6</v>
-      </c>
-      <c r="B9" s="18">
-        <f>24-(24/10*A9)</f>
-        <v>9.600000000000001</v>
-      </c>
-      <c r="C9" s="19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="17">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18">
-        <f>24-(24/10*A10)</f>
-        <v>7.199999999999999</v>
-      </c>
-      <c r="C10" s="19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="17">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18">
-        <f>24-(24/10*A11)</f>
-        <v>4.800000000000001</v>
-      </c>
-      <c r="C11" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="17">
-        <v>9</v>
-      </c>
-      <c r="B12" s="18">
-        <f>24-(24/10*A12)</f>
-        <v>2.400000000000002</v>
-      </c>
-      <c r="C12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="17">
-        <v>10</v>
-      </c>
-      <c r="B13" s="18">
-        <f>24-(24/10*A13)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>